--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X15 at 2200 repeat sept 28 2013.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X15 at 2200 repeat sept 28 2013.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -114,25 +114,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,18 +483,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,6 +791,1218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.38</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.05</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="858491117"/>
+        <c:axId val="894964926"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="858491117"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894964926"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="894964926"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858491117"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10647680" y="11574780"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,19 +2286,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I60" sqref="I59:I60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,12 +2381,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.18813657407407405</v>
+        <v>0.188136574074074</v>
       </c>
       <c r="C6">
         <v>73</v>
@@ -549,7 +2395,7 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F6">
         <v>3.03</v>
@@ -588,12 +2434,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.18825231481481483</v>
+        <v>0.188252314814815</v>
       </c>
       <c r="C7">
         <v>79</v>
@@ -641,12 +2487,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.18836805555555555</v>
+        <v>0.188368055555556</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -694,12 +2540,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.1884837962962963</v>
+        <v>0.188483796296296</v>
       </c>
       <c r="C9">
         <v>83</v>
@@ -708,7 +2554,7 @@
         <v>52</v>
       </c>
       <c r="E9">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F9">
         <v>3.25</v>
@@ -747,12 +2593,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.18859953703703702</v>
+        <v>0.188599537037037</v>
       </c>
       <c r="C10">
         <v>81</v>
@@ -761,7 +2607,7 @@
         <v>52</v>
       </c>
       <c r="E10">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="F10">
         <v>3.18</v>
@@ -800,12 +2646,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18871527777777777</v>
+        <v>0.188715277777778</v>
       </c>
       <c r="C11">
         <v>80</v>
@@ -814,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="E11">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="F11">
         <v>3.15</v>
@@ -856,12 +2702,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.1888310185185185</v>
+        <v>0.188831018518518</v>
       </c>
       <c r="C12">
         <v>78</v>
@@ -909,12 +2755,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.18894675925925927</v>
+        <v>0.188946759259259</v>
       </c>
       <c r="C13">
         <v>74</v>
@@ -962,12 +2808,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.18906249999999999</v>
+        <v>0.1890625</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -1015,12 +2861,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.18917824074074074</v>
+        <v>0.189178240740741</v>
       </c>
       <c r="C15">
         <v>74</v>
@@ -1068,12 +2914,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.18929398148148149</v>
+        <v>0.189293981481481</v>
       </c>
       <c r="C16">
         <v>74</v>
@@ -1121,12 +2967,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.18940972222222222</v>
+        <v>0.189409722222222</v>
       </c>
       <c r="C17">
         <v>75</v>
@@ -1174,12 +3020,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.18952546296296294</v>
+        <v>0.189525462962963</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -1227,12 +3073,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.18964120370370371</v>
+        <v>0.189641203703704</v>
       </c>
       <c r="C19">
         <v>76</v>
@@ -1280,12 +3126,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.18975694444444446</v>
+        <v>0.189756944444444</v>
       </c>
       <c r="C20">
         <v>75</v>
@@ -1333,12 +3179,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.18987268518518519</v>
+        <v>0.189872685185185</v>
       </c>
       <c r="C21">
         <v>78</v>
@@ -1386,12 +3232,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.18998842592592591</v>
+        <v>0.189988425925926</v>
       </c>
       <c r="C22">
         <v>93</v>
@@ -1400,7 +3246,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F22">
         <v>3.73</v>
@@ -1442,12 +3288,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.19010416666666666</v>
+        <v>0.190104166666667</v>
       </c>
       <c r="C23">
         <v>111</v>
@@ -1486,7 +3332,7 @@
         <v>1128</v>
       </c>
       <c r="O23">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="P23">
         <v>113</v>
@@ -1495,12 +3341,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.19021990740740743</v>
+        <v>0.190219907407407</v>
       </c>
       <c r="C24">
         <v>126</v>
@@ -1548,12 +3394,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.19033564814814816</v>
+        <v>0.190335648148148</v>
       </c>
       <c r="C25">
         <v>126</v>
@@ -1601,12 +3447,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.19045138888888888</v>
+        <v>0.190451388888889</v>
       </c>
       <c r="C26">
         <v>125</v>
@@ -1654,12 +3500,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.19056712962962963</v>
+        <v>0.19056712962963</v>
       </c>
       <c r="C27">
         <v>122</v>
@@ -1707,12 +3553,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.19068287037037038</v>
+        <v>0.19068287037037</v>
       </c>
       <c r="C28">
         <v>121</v>
@@ -1760,12 +3606,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.1907986111111111</v>
+        <v>0.190798611111111</v>
       </c>
       <c r="C29">
         <v>119</v>
@@ -1813,12 +3659,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.19091435185185182</v>
+        <v>0.190914351851852</v>
       </c>
       <c r="C30">
         <v>119</v>
@@ -1866,12 +3712,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.1910300925925926</v>
+        <v>0.191030092592593</v>
       </c>
       <c r="C31">
         <v>119</v>
@@ -1919,12 +3765,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.19114583333333335</v>
+        <v>0.191145833333333</v>
       </c>
       <c r="C32">
         <v>116</v>
@@ -1972,12 +3818,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.19126157407407407</v>
+        <v>0.191261574074074</v>
       </c>
       <c r="C33">
         <v>121</v>
@@ -2025,12 +3871,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.19137731481481482</v>
+        <v>0.191377314814815</v>
       </c>
       <c r="C34">
         <v>121</v>
@@ -2039,7 +3885,7 @@
         <v>66</v>
       </c>
       <c r="E34">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F34">
         <v>5.99</v>
@@ -2078,12 +3924,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.19149305555555554</v>
+        <v>0.191493055555556</v>
       </c>
       <c r="C35">
         <v>118</v>
@@ -2131,12 +3977,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.19160879629629632</v>
+        <v>0.191608796296296</v>
       </c>
       <c r="C36">
         <v>119</v>
@@ -2184,12 +4030,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.19172453703703704</v>
+        <v>0.191724537037037</v>
       </c>
       <c r="C37">
         <v>118</v>
@@ -2237,12 +4083,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.19184027777777779</v>
+        <v>0.191840277777778</v>
       </c>
       <c r="C38">
         <v>120</v>
@@ -2290,12 +4136,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.19195601851851851</v>
+        <v>0.191956018518519</v>
       </c>
       <c r="C39">
         <v>120</v>
@@ -2343,12 +4189,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.19207175925925926</v>
+        <v>0.192071759259259</v>
       </c>
       <c r="C40">
         <v>123</v>
@@ -2396,12 +4242,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.19218749999999998</v>
+        <v>0.1921875</v>
       </c>
       <c r="C41">
         <v>122</v>
@@ -2449,12 +4295,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.19230324074074076</v>
+        <v>0.192303240740741</v>
       </c>
       <c r="C42">
         <v>124</v>
@@ -2502,12 +4348,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.19241898148148148</v>
+        <v>0.192418981481481</v>
       </c>
       <c r="C43">
         <v>125</v>
@@ -2555,12 +4401,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.19253472222222223</v>
+        <v>0.192534722222222</v>
       </c>
       <c r="C44">
         <v>124</v>
@@ -2608,12 +4454,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.19265046296296295</v>
+        <v>0.192650462962963</v>
       </c>
       <c r="C45">
         <v>128</v>
@@ -2622,7 +4468,7 @@
         <v>64</v>
       </c>
       <c r="E45">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F45">
         <v>6.05</v>
@@ -2661,12 +4507,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.1927662037037037</v>
+        <v>0.192766203703704</v>
       </c>
       <c r="C46">
         <v>130</v>
@@ -2675,7 +4521,7 @@
         <v>65</v>
       </c>
       <c r="E46">
-        <v>8.4600000000000009</v>
+        <v>8.46</v>
       </c>
       <c r="F46">
         <v>6.25</v>
@@ -2717,12 +4563,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.19288194444444443</v>
+        <v>0.192881944444444</v>
       </c>
       <c r="C47">
         <v>135</v>
@@ -2731,7 +4577,7 @@
         <v>66</v>
       </c>
       <c r="E47">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="F47">
         <v>6.63</v>
@@ -2770,12 +4616,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.1929976851851852</v>
+        <v>0.192997685185185</v>
       </c>
       <c r="C48">
         <v>138</v>
@@ -2823,12 +4669,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.19311342592592592</v>
+        <v>0.193113425925926</v>
       </c>
       <c r="C49">
         <v>141</v>
@@ -2876,12 +4722,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.19322916666666667</v>
+        <v>0.193229166666667</v>
       </c>
       <c r="C50">
         <v>147</v>
@@ -2929,12 +4775,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.1933449074074074</v>
+        <v>0.193344907407407</v>
       </c>
       <c r="C51">
         <v>152</v>
@@ -2985,12 +4831,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.19346064814814815</v>
+        <v>0.193460648148148</v>
       </c>
       <c r="C52">
         <v>146</v>
@@ -3038,12 +4884,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.19357638888888887</v>
+        <v>0.193576388888889</v>
       </c>
       <c r="C53">
         <v>156</v>
@@ -3052,7 +4898,7 @@
         <v>62</v>
       </c>
       <c r="E53">
-        <v>9.8699999999999992</v>
+        <v>9.87</v>
       </c>
       <c r="F53">
         <v>7.29</v>
@@ -3091,12 +4937,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.19369212962962964</v>
+        <v>0.19369212962963</v>
       </c>
       <c r="C54">
         <v>161</v>
@@ -3144,12 +4990,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.19380787037037037</v>
+        <v>0.19380787037037</v>
       </c>
       <c r="C55">
         <v>163</v>
@@ -3197,12 +5043,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.19392361111111112</v>
+        <v>0.193923611111111</v>
       </c>
       <c r="C56">
         <v>178</v>
@@ -3250,12 +5096,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.19403935185185184</v>
+        <v>0.194039351851852</v>
       </c>
       <c r="C57">
         <v>155</v>
@@ -3303,12 +5149,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.19415509259259259</v>
+        <v>0.194155092592593</v>
       </c>
       <c r="C58">
         <v>175</v>
@@ -3356,12 +5202,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.19427083333333331</v>
+        <v>0.194270833333333</v>
       </c>
       <c r="C59">
         <v>168</v>
@@ -3412,12 +5258,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.19438657407407409</v>
+        <v>0.194386574074074</v>
       </c>
       <c r="C60">
         <v>153</v>
@@ -3426,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="E60">
-        <v>9.3800000000000008</v>
+        <v>9.38</v>
       </c>
       <c r="F60">
         <v>6.92</v>
@@ -3465,12 +5311,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.19450231481481484</v>
+        <v>0.194502314814815</v>
       </c>
       <c r="C61">
         <v>186</v>
@@ -3518,12 +5364,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.19461805555555556</v>
+        <v>0.194618055555556</v>
       </c>
       <c r="C62">
         <v>175</v>
@@ -3574,12 +5420,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.19473379629629628</v>
+        <v>0.194733796296296</v>
       </c>
       <c r="C63">
         <v>172</v>
@@ -3627,12 +5473,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.19484953703703703</v>
+        <v>0.194849537037037</v>
       </c>
       <c r="C64">
         <v>160</v>
@@ -3680,12 +5526,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.19496527777777781</v>
+        <v>0.194965277777778</v>
       </c>
       <c r="C65">
         <v>159</v>
@@ -3733,12 +5579,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.19508101851851853</v>
+        <v>0.195081018518519</v>
       </c>
       <c r="C66">
         <v>163</v>
@@ -3747,7 +5593,7 @@
         <v>48</v>
       </c>
       <c r="E66">
-        <v>8.0500000000000007</v>
+        <v>8.05</v>
       </c>
       <c r="F66">
         <v>5.94</v>
@@ -3786,12 +5632,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.19519675925925925</v>
+        <v>0.195196759259259</v>
       </c>
       <c r="C67">
         <v>151</v>
@@ -3839,36 +5685,46 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X15 at 2200 repeat sept 28 2013.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X15 at 2200 repeat sept 28 2013.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\28Sept2013_Xining_Physioflow_X33X37_repeatX15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D90255-912B-4954-9C23-BE9B1AF6BE81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -114,14 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,351 +131,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -483,320 +161,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -808,7 +202,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -834,6 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -858,200 +252,197 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$67</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="62"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +454,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
                 <c:pt idx="0">
-                  <c:v>4.1</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.28</c:v>
@@ -1072,13 +463,13 @@
                   <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.31</c:v>
+                  <c:v>4.3099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.27</c:v>
+                  <c:v>4.2699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.17</c:v>
@@ -1111,7 +502,7 @@
                   <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.75</c:v>
@@ -1147,7 +538,7 @@
                   <c:v>7.98</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.12</c:v>
+                  <c:v>8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>7.79</c:v>
@@ -1180,13 +571,13 @@
                   <c:v>7.69</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.46</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.97</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9.39</c:v>
@@ -1204,7 +595,7 @@
                   <c:v>9.26</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.87</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10.7</c:v>
@@ -1225,7 +616,7 @@
                   <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.38</c:v>
+                  <c:v>9.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>10.97</c:v>
@@ -1243,7 +634,7 @@
                   <c:v>6.95</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.05</c:v>
+                  <c:v>8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>8.49</c:v>
@@ -1252,6 +643,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-667D-4BD0-9595-C49280161CF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1261,7 +657,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="858491117"/>
         <c:axId val="894964926"/>
@@ -1273,6 +668,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1306,6 +702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="894964926"/>
@@ -1364,6 +761,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="858491117"/>
@@ -1404,6 +802,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1971,7 +1370,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -1985,14 +1384,20 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10647680" y="11574780"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2286,21 +1691,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I60" sqref="I59:I60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2381,9 +1786,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
         <v>0.188136574074074</v>
@@ -2394,8 +1799,8 @@
       <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6">
-        <v>4.1</v>
+      <c r="E6" s="3">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F6">
         <v>3.03</v>
@@ -2434,9 +1839,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
         <v>0.188252314814815</v>
@@ -2447,7 +1852,7 @@
       <c r="D7">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>4.28</v>
       </c>
       <c r="F7">
@@ -2487,9 +1892,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
         <v>0.188368055555556</v>
@@ -2500,7 +1905,7 @@
       <c r="D8">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>4.13</v>
       </c>
       <c r="F8">
@@ -2540,9 +1945,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
         <v>0.188483796296296</v>
@@ -2553,8 +1958,8 @@
       <c r="D9">
         <v>52</v>
       </c>
-      <c r="E9">
-        <v>4.4</v>
+      <c r="E9" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="F9">
         <v>3.25</v>
@@ -2593,9 +1998,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
         <v>0.188599537037037</v>
@@ -2606,8 +2011,8 @@
       <c r="D10">
         <v>52</v>
       </c>
-      <c r="E10">
-        <v>4.31</v>
+      <c r="E10" s="3">
+        <v>4.3099999999999996</v>
       </c>
       <c r="F10">
         <v>3.18</v>
@@ -2648,7 +2053,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
         <v>0.188715277777778</v>
@@ -2659,8 +2064,8 @@
       <c r="D11">
         <v>53</v>
       </c>
-      <c r="E11">
-        <v>4.27</v>
+      <c r="E11" s="3">
+        <v>4.2699999999999996</v>
       </c>
       <c r="F11">
         <v>3.15</v>
@@ -2702,9 +2107,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
         <v>0.188831018518518</v>
@@ -2715,7 +2120,7 @@
       <c r="D12">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>4.17</v>
       </c>
       <c r="F12">
@@ -2755,9 +2160,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
         <v>0.188946759259259</v>
@@ -2768,7 +2173,7 @@
       <c r="D13">
         <v>51</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>3.83</v>
       </c>
       <c r="F13">
@@ -2808,12 +2213,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.1890625</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="C14">
         <v>74</v>
@@ -2821,7 +2226,7 @@
       <c r="D14">
         <v>49</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>3.67</v>
       </c>
       <c r="F14">
@@ -2861,12 +2266,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.189178240740741</v>
+        <v>0.18917824074074099</v>
       </c>
       <c r="C15">
         <v>74</v>
@@ -2874,7 +2279,7 @@
       <c r="D15">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3.72</v>
       </c>
       <c r="F15">
@@ -2914,12 +2319,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.189293981481481</v>
+        <v>0.18929398148148099</v>
       </c>
       <c r="C16">
         <v>74</v>
@@ -2927,7 +2332,7 @@
       <c r="D16">
         <v>51</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>3.82</v>
       </c>
       <c r="F16">
@@ -2967,12 +2372,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.189409722222222</v>
+        <v>0.18940972222222199</v>
       </c>
       <c r="C17">
         <v>75</v>
@@ -2980,7 +2385,7 @@
       <c r="D17">
         <v>51</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>3.88</v>
       </c>
       <c r="F17">
@@ -3020,12 +2425,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.189525462962963</v>
+        <v>0.18952546296296299</v>
       </c>
       <c r="C18">
         <v>74</v>
@@ -3033,7 +2438,7 @@
       <c r="D18">
         <v>51</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>3.87</v>
       </c>
       <c r="F18">
@@ -3073,12 +2478,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.189641203703704</v>
+        <v>0.18964120370370399</v>
       </c>
       <c r="C19">
         <v>76</v>
@@ -3086,7 +2491,7 @@
       <c r="D19">
         <v>53</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>4.07</v>
       </c>
       <c r="F19">
@@ -3126,12 +2531,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.189756944444444</v>
+        <v>0.18975694444444399</v>
       </c>
       <c r="C20">
         <v>75</v>
@@ -3139,7 +2544,7 @@
       <c r="D20">
         <v>53</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>4.05</v>
       </c>
       <c r="F20">
@@ -3179,12 +2584,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.189872685185185</v>
+        <v>0.18987268518518499</v>
       </c>
       <c r="C21">
         <v>78</v>
@@ -3234,10 +2639,10 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.189988425925926</v>
+        <v>0.18998842592592599</v>
       </c>
       <c r="C22">
         <v>93</v>
@@ -3246,7 +2651,7 @@
         <v>53</v>
       </c>
       <c r="E22">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F22">
         <v>3.73</v>
@@ -3288,12 +2693,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.190104166666667</v>
+        <v>0.19010416666666699</v>
       </c>
       <c r="C23">
         <v>111</v>
@@ -3332,7 +2737,7 @@
         <v>1128</v>
       </c>
       <c r="O23">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="P23">
         <v>113</v>
@@ -3341,12 +2746,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.190219907407407</v>
+        <v>0.19021990740740699</v>
       </c>
       <c r="C24">
         <v>126</v>
@@ -3394,12 +2799,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.190335648148148</v>
+        <v>0.19033564814814799</v>
       </c>
       <c r="C25">
         <v>126</v>
@@ -3447,12 +2852,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.190451388888889</v>
+        <v>0.19045138888888899</v>
       </c>
       <c r="C26">
         <v>125</v>
@@ -3500,12 +2905,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.19056712962963</v>
+        <v>0.19056712962962999</v>
       </c>
       <c r="C27">
         <v>122</v>
@@ -3553,12 +2958,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.19068287037037</v>
+        <v>0.19068287037036999</v>
       </c>
       <c r="C28">
         <v>121</v>
@@ -3606,12 +3011,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.190798611111111</v>
+        <v>0.19079861111111099</v>
       </c>
       <c r="C29">
         <v>119</v>
@@ -3659,12 +3064,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.190914351851852</v>
+        <v>0.19091435185185199</v>
       </c>
       <c r="C30">
         <v>119</v>
@@ -3712,12 +3117,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.191030092592593</v>
+        <v>0.19103009259259299</v>
       </c>
       <c r="C31">
         <v>119</v>
@@ -3765,12 +3170,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.191145833333333</v>
+        <v>0.19114583333333299</v>
       </c>
       <c r="C32">
         <v>116</v>
@@ -3818,12 +3223,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.191261574074074</v>
+        <v>0.19126157407407399</v>
       </c>
       <c r="C33">
         <v>121</v>
@@ -3871,12 +3276,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.191377314814815</v>
+        <v>0.19137731481481501</v>
       </c>
       <c r="C34">
         <v>121</v>
@@ -3885,7 +3290,7 @@
         <v>66</v>
       </c>
       <c r="E34">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F34">
         <v>5.99</v>
@@ -3924,12 +3329,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.191493055555556</v>
+        <v>0.19149305555555601</v>
       </c>
       <c r="C35">
         <v>118</v>
@@ -3977,12 +3382,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.191608796296296</v>
+        <v>0.19160879629629601</v>
       </c>
       <c r="C36">
         <v>119</v>
@@ -4030,12 +3435,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.191724537037037</v>
+        <v>0.19172453703703701</v>
       </c>
       <c r="C37">
         <v>118</v>
@@ -4083,12 +3488,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.191840277777778</v>
+        <v>0.19184027777777801</v>
       </c>
       <c r="C38">
         <v>120</v>
@@ -4136,12 +3541,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.191956018518519</v>
+        <v>0.19195601851851901</v>
       </c>
       <c r="C39">
         <v>120</v>
@@ -4189,12 +3594,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.192071759259259</v>
+        <v>0.19207175925925901</v>
       </c>
       <c r="C40">
         <v>123</v>
@@ -4242,12 +3647,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1921875</v>
+        <v>0.19218750000000001</v>
       </c>
       <c r="C41">
         <v>122</v>
@@ -4295,12 +3700,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.192303240740741</v>
+        <v>0.19230324074074101</v>
       </c>
       <c r="C42">
         <v>124</v>
@@ -4348,12 +3753,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.192418981481481</v>
+        <v>0.19241898148148101</v>
       </c>
       <c r="C43">
         <v>125</v>
@@ -4401,12 +3806,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.192534722222222</v>
+        <v>0.19253472222222201</v>
       </c>
       <c r="C44">
         <v>124</v>
@@ -4454,12 +3859,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.192650462962963</v>
+        <v>0.19265046296296301</v>
       </c>
       <c r="C45">
         <v>128</v>
@@ -4468,7 +3873,7 @@
         <v>64</v>
       </c>
       <c r="E45">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F45">
         <v>6.05</v>
@@ -4509,10 +3914,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.192766203703704</v>
+        <v>0.19276620370370401</v>
       </c>
       <c r="C46">
         <v>130</v>
@@ -4521,7 +3926,7 @@
         <v>65</v>
       </c>
       <c r="E46">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F46">
         <v>6.25</v>
@@ -4563,12 +3968,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.192881944444444</v>
+        <v>0.19288194444444401</v>
       </c>
       <c r="C47">
         <v>135</v>
@@ -4577,7 +3982,7 @@
         <v>66</v>
       </c>
       <c r="E47">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="F47">
         <v>6.63</v>
@@ -4616,12 +4021,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.192997685185185</v>
+        <v>0.19299768518518501</v>
       </c>
       <c r="C48">
         <v>138</v>
@@ -4669,12 +4074,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.193113425925926</v>
+        <v>0.19311342592592601</v>
       </c>
       <c r="C49">
         <v>141</v>
@@ -4722,12 +4127,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.193229166666667</v>
+        <v>0.19322916666666701</v>
       </c>
       <c r="C50">
         <v>147</v>
@@ -4777,10 +4182,10 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.193344907407407</v>
+        <v>0.19334490740740701</v>
       </c>
       <c r="C51">
         <v>152</v>
@@ -4788,7 +4193,7 @@
       <c r="D51">
         <v>65</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>10.07</v>
       </c>
       <c r="F51">
@@ -4831,12 +4236,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.193460648148148</v>
+        <v>0.19346064814814801</v>
       </c>
       <c r="C52">
         <v>146</v>
@@ -4844,7 +4249,7 @@
       <c r="D52">
         <v>63</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>9.26</v>
       </c>
       <c r="F52">
@@ -4884,12 +4289,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.193576388888889</v>
+        <v>0.19357638888888901</v>
       </c>
       <c r="C53">
         <v>156</v>
@@ -4897,8 +4302,8 @@
       <c r="D53">
         <v>62</v>
       </c>
-      <c r="E53">
-        <v>9.87</v>
+      <c r="E53" s="2">
+        <v>9.8699999999999992</v>
       </c>
       <c r="F53">
         <v>7.29</v>
@@ -4937,12 +4342,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.19369212962963</v>
+        <v>0.19369212962963001</v>
       </c>
       <c r="C54">
         <v>161</v>
@@ -4950,7 +4355,7 @@
       <c r="D54">
         <v>66</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>10.7</v>
       </c>
       <c r="F54">
@@ -4990,12 +4395,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.19380787037037</v>
+        <v>0.19380787037037001</v>
       </c>
       <c r="C55">
         <v>163</v>
@@ -5003,7 +4408,7 @@
       <c r="D55">
         <v>61</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>10.11</v>
       </c>
       <c r="F55">
@@ -5043,12 +4448,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.193923611111111</v>
+        <v>0.19392361111111101</v>
       </c>
       <c r="C56">
         <v>178</v>
@@ -5056,7 +4461,7 @@
       <c r="D56">
         <v>57</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>10.32</v>
       </c>
       <c r="F56">
@@ -5096,9 +4501,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
         <v>0.194039351851852</v>
@@ -5109,7 +4514,7 @@
       <c r="D57">
         <v>52</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>8.25</v>
       </c>
       <c r="F57">
@@ -5149,9 +4554,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
         <v>0.194155092592593</v>
@@ -5162,7 +4567,7 @@
       <c r="D58">
         <v>58</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>10.34</v>
       </c>
       <c r="F58">
@@ -5204,7 +4609,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
         <v>0.194270833333333</v>
@@ -5215,7 +4620,7 @@
       <c r="D59">
         <v>58</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>9.94</v>
       </c>
       <c r="F59">
@@ -5258,9 +4663,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
         <v>0.194386574074074</v>
@@ -5271,8 +4676,8 @@
       <c r="D60">
         <v>61</v>
       </c>
-      <c r="E60">
-        <v>9.38</v>
+      <c r="E60" s="2">
+        <v>9.3800000000000008</v>
       </c>
       <c r="F60">
         <v>6.92</v>
@@ -5311,9 +4716,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
         <v>0.194502314814815</v>
@@ -5324,7 +4729,7 @@
       <c r="D61">
         <v>58</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>10.97</v>
       </c>
       <c r="F61">
@@ -5366,7 +4771,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
         <v>0.194618055555556</v>
@@ -5377,7 +4782,7 @@
       <c r="D62">
         <v>58</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>10.27</v>
       </c>
       <c r="F62">
@@ -5420,9 +4825,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
         <v>0.194733796296296</v>
@@ -5473,9 +4878,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
         <v>0.194849537037037</v>
@@ -5528,7 +4933,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
         <v>0.194965277777778</v>
@@ -5581,7 +4986,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
         <v>0.195081018518519</v>
@@ -5593,7 +4998,7 @@
         <v>48</v>
       </c>
       <c r="E66">
-        <v>8.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F66">
         <v>5.94</v>
@@ -5634,7 +5039,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
         <v>0.195196759259259</v>
@@ -5685,46 +5090,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>